--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H2">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N2">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q2">
-        <v>720.6541530768242</v>
+        <v>1479.37499070847</v>
       </c>
       <c r="R2">
-        <v>720.6541530768242</v>
+        <v>13314.37491637623</v>
       </c>
       <c r="S2">
-        <v>0.02303441522708514</v>
+        <v>0.03855705632505344</v>
       </c>
       <c r="T2">
-        <v>0.02303441522708514</v>
+        <v>0.03855705632505344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H3">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N3">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q3">
-        <v>3665.327289910886</v>
+        <v>4873.113570746575</v>
       </c>
       <c r="R3">
-        <v>3665.327289910886</v>
+        <v>43858.02213671917</v>
       </c>
       <c r="S3">
-        <v>0.1171556014469726</v>
+        <v>0.127008307971785</v>
       </c>
       <c r="T3">
-        <v>0.1171556014469726</v>
+        <v>0.127008307971785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H4">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I4">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J4">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N4">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q4">
-        <v>4130.37792431766</v>
+        <v>5815.572771492207</v>
       </c>
       <c r="R4">
-        <v>4130.37792431766</v>
+        <v>52340.15494342986</v>
       </c>
       <c r="S4">
-        <v>0.1320201094343471</v>
+        <v>0.1515716896129818</v>
       </c>
       <c r="T4">
-        <v>0.1320201094343471</v>
+        <v>0.1515716896129818</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H5">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I5">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J5">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N5">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q5">
-        <v>1840.967643714941</v>
+        <v>2449.650145980797</v>
       </c>
       <c r="R5">
-        <v>1840.967643714941</v>
+        <v>22046.85131382717</v>
       </c>
       <c r="S5">
-        <v>0.05884322312430763</v>
+        <v>0.06384540718105852</v>
       </c>
       <c r="T5">
-        <v>0.05884322312430763</v>
+        <v>0.06384540718105854</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H6">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J6">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N6">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q6">
-        <v>175.298083129309</v>
+        <v>283.5960064063968</v>
       </c>
       <c r="R6">
-        <v>175.298083129309</v>
+        <v>2552.364057657572</v>
       </c>
       <c r="S6">
-        <v>0.00560308827483041</v>
+        <v>0.00739138302408038</v>
       </c>
       <c r="T6">
-        <v>0.00560308827483041</v>
+        <v>0.007391383024080381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H7">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J7">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N7">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q7">
-        <v>891.5855757157179</v>
+        <v>934.1752808506715</v>
       </c>
       <c r="R7">
-        <v>891.5855757157179</v>
+        <v>8407.577527656043</v>
       </c>
       <c r="S7">
-        <v>0.02849793104477714</v>
+        <v>0.02434747724373959</v>
       </c>
       <c r="T7">
-        <v>0.02849793104477714</v>
+        <v>0.02434747724373959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H8">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J8">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N8">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q8">
-        <v>1004.708471658963</v>
+        <v>1114.844595399802</v>
       </c>
       <c r="R8">
-        <v>1004.708471658963</v>
+        <v>10033.60135859822</v>
       </c>
       <c r="S8">
-        <v>0.03211370116935348</v>
+        <v>0.02905627452707314</v>
       </c>
       <c r="T8">
-        <v>0.03211370116935348</v>
+        <v>0.02905627452707314</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H9">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J9">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N9">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q9">
-        <v>447.8127235768628</v>
+        <v>469.5976360667723</v>
       </c>
       <c r="R9">
-        <v>447.8127235768628</v>
+        <v>4226.378724600952</v>
       </c>
       <c r="S9">
-        <v>0.01431352913849333</v>
+        <v>0.01223915681802043</v>
       </c>
       <c r="T9">
-        <v>0.01431352913849333</v>
+        <v>0.01223915681802043</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H10">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I10">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J10">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N10">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q10">
-        <v>1137.289513342799</v>
+        <v>1887.745752806034</v>
       </c>
       <c r="R10">
-        <v>1137.289513342799</v>
+        <v>16989.7117752543</v>
       </c>
       <c r="S10">
-        <v>0.03635141596270653</v>
+        <v>0.04920045274218511</v>
       </c>
       <c r="T10">
-        <v>0.03635141596270653</v>
+        <v>0.04920045274218512</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H11">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I11">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J11">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N11">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q11">
-        <v>5784.381137591878</v>
+        <v>6218.301312308117</v>
       </c>
       <c r="R11">
-        <v>5784.381137591878</v>
+        <v>55964.71181077306</v>
       </c>
       <c r="S11">
-        <v>0.1848873504525639</v>
+        <v>0.1620680324127944</v>
       </c>
       <c r="T11">
-        <v>0.1848873504525639</v>
+        <v>0.1620680324127944</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H12">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I12">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J12">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N12">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q12">
-        <v>6518.293802114965</v>
+        <v>7420.91955621159</v>
       </c>
       <c r="R12">
-        <v>6518.293802114965</v>
+        <v>66788.27600590431</v>
       </c>
       <c r="S12">
-        <v>0.20834555017689</v>
+        <v>0.1934119578265374</v>
       </c>
       <c r="T12">
-        <v>0.20834555017689</v>
+        <v>0.1934119578265374</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H13">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I13">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J13">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N13">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q13">
-        <v>2905.295399549593</v>
+        <v>3125.858344219643</v>
       </c>
       <c r="R13">
-        <v>2905.295399549593</v>
+        <v>28132.72509797679</v>
       </c>
       <c r="S13">
-        <v>0.09286254759629682</v>
+        <v>0.08146946987693522</v>
       </c>
       <c r="T13">
-        <v>0.09286254759629682</v>
+        <v>0.08146946987693524</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H14">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I14">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J14">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N14">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q14">
-        <v>143.6102736886986</v>
+        <v>232.3359934325087</v>
       </c>
       <c r="R14">
-        <v>143.6102736886986</v>
+        <v>2091.023940892578</v>
       </c>
       <c r="S14">
-        <v>0.004590244378523942</v>
+        <v>0.006055389635067723</v>
       </c>
       <c r="T14">
-        <v>0.004590244378523942</v>
+        <v>0.006055389635067724</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H15">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I15">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J15">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N15">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q15">
-        <v>730.4178474728704</v>
+        <v>765.3229841520007</v>
       </c>
       <c r="R15">
-        <v>730.4178474728704</v>
+        <v>6887.906857368006</v>
       </c>
       <c r="S15">
-        <v>0.02334649417634074</v>
+        <v>0.01994666774289259</v>
       </c>
       <c r="T15">
-        <v>0.02334649417634074</v>
+        <v>0.01994666774289259</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H16">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I16">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J16">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N16">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q16">
-        <v>823.0920499333955</v>
+        <v>913.3362979163368</v>
       </c>
       <c r="R16">
-        <v>823.0920499333955</v>
+        <v>8220.026681247031</v>
       </c>
       <c r="S16">
-        <v>0.02630865855324834</v>
+        <v>0.02380434933918364</v>
       </c>
       <c r="T16">
-        <v>0.02630865855324834</v>
+        <v>0.02380434933918364</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H17">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I17">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J17">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N17">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q17">
-        <v>366.8637251824141</v>
+        <v>384.7178056971053</v>
       </c>
       <c r="R17">
-        <v>366.8637251824141</v>
+        <v>3462.460251273948</v>
       </c>
       <c r="S17">
-        <v>0.01172613984326283</v>
+        <v>0.01002692772061157</v>
       </c>
       <c r="T17">
-        <v>0.01172613984326283</v>
+        <v>0.01002692772061158</v>
       </c>
     </row>
   </sheetData>
